--- a/仕様書/動物パターン.xlsx
+++ b/仕様書/動物パターン.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
-  <si>
-    <t>豚</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
   <si>
     <t>牛</t>
   </si>
@@ -163,13 +160,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ヘラジカ（狸）</t>
-    <rPh sb="5" eb="6">
-      <t>タヌキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>鮫（カジキ）</t>
     <rPh sb="0" eb="1">
       <t>サメ</t>
@@ -177,10 +167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>狸</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>小動物＋１０００</t>
     <rPh sb="0" eb="3">
       <t>ショウドウブツ</t>
@@ -202,6 +188,44 @@
     <rPh sb="1" eb="2">
       <t>モ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アライグマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヘラジカ（アライグマ）</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複数いる該当する場合は順番関係なくスコアアップ</t>
+    <rPh sb="0" eb="2">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジュンバン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カンケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>豚</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -530,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -542,10 +566,10 @@
     <col min="2" max="2" width="24.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="20" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="20.75" style="1" customWidth="1"/>
-    <col min="7" max="7" width="10.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="29.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="3.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="44.75" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="46.375" style="1" customWidth="1"/>
     <col min="9" max="10" width="11" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="1" customWidth="1"/>
@@ -554,112 +578,123 @@
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="28.5" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="28.5" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="28.5" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="30" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>28</v>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
